--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0024-004 - Fitur Pada Customer Service.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0024-004 - Fitur Pada Customer Service.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E50480C-F25E-4BB4-A1C2-33ADC229CA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C059BC5E-C2CC-42B6-8D04-CB71E1887F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0325" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0024" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,9 +86,6 @@
     <t>TEXT6</t>
   </si>
   <si>
-    <t>DGS-340</t>
-  </si>
-  <si>
     <t>Fitur pada Customer Service</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve"> - Field NPP akan terisi secara otomatis oleh system berdasarkan user login Customer Service tersebut.</t>
+  </si>
+  <si>
+    <t>SCD0024-004</t>
   </si>
 </sst>
 </file>
@@ -211,11 +211,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,13 +526,13 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -606,20 +606,20 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="5">
         <v>51162</v>
@@ -628,10 +628,10 @@
         <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
